--- a/pthreadopenMP/数据.xlsx
+++ b/pthreadopenMP/数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27979\Desktop\并行程序设计\pthreadopenMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DFA043-8D27-454D-81D5-CEEB90634F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DBF459-D48F-4B9A-A22E-A2C55B9C822C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="615" windowWidth="17392" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>nprobe</t>
   </si>
@@ -54,14 +54,87 @@
   </si>
   <si>
     <t>pthread_latency_静态线程_cache</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>openMP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>openMP_simd</t>
+  </si>
+  <si>
+    <t>ivf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ivf+pq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>openMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>openMP+simd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq+ivf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread_static</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_HIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1_MISS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2_HIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2_MISS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3_HIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3_MISS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reordered(cache-friendly)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unordered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructions_retired</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread_dynamic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>openMP+SIMD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +171,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,8 +201,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -130,6 +213,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -398,15 +493,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.53125"/>
+    <col min="1" max="1" width="25.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.06640625" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" customWidth="1"/>
+    <col min="4" max="4" width="18.9296875" customWidth="1"/>
+    <col min="5" max="5" width="19.1328125" customWidth="1"/>
+    <col min="6" max="6" width="22.796875" customWidth="1"/>
+    <col min="7" max="7" width="17.73046875" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
     <col min="11" max="12" width="9.53125"/>
     <col min="16" max="16" width="17.6640625" customWidth="1"/>
     <col min="17" max="17" width="29.265625" customWidth="1"/>
@@ -441,6 +543,9 @@
       <c r="L1" t="s">
         <v>2</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="O1">
         <v>1024</v>
       </c>
@@ -608,7 +713,7 @@
       </c>
       <c r="Q5">
         <f>AVERAGE(Q2:Q4)</f>
-        <v>696.63333333333333</v>
+        <v>696.63333333333298</v>
       </c>
       <c r="R5">
         <v>286.65499999999997</v>
@@ -703,6 +808,38 @@
       <c r="L9">
         <v>0.961202</v>
       </c>
+      <c r="N9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>450.02</v>
+      </c>
+      <c r="Q10">
+        <v>392.36200000000002</v>
+      </c>
+      <c r="R10">
+        <v>171.31</v>
+      </c>
+      <c r="S10">
+        <v>146.32</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -729,6 +866,21 @@
       <c r="L11" t="s">
         <v>2</v>
       </c>
+      <c r="N11">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <v>462.12900000000002</v>
+      </c>
+      <c r="Q11">
+        <v>371.03500000000003</v>
+      </c>
+      <c r="R11">
+        <v>163.87</v>
+      </c>
+      <c r="S11">
+        <v>153.30699999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B12">
@@ -749,6 +901,21 @@
       <c r="L12">
         <v>0.62430099999999999</v>
       </c>
+      <c r="N12">
+        <v>1024</v>
+      </c>
+      <c r="P12">
+        <v>431.23</v>
+      </c>
+      <c r="Q12">
+        <v>380.32400000000001</v>
+      </c>
+      <c r="R12">
+        <v>181.29</v>
+      </c>
+      <c r="S12">
+        <v>155.798</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13">
@@ -769,6 +936,23 @@
       <c r="L13">
         <v>0.762652</v>
       </c>
+      <c r="N13">
+        <v>16</v>
+      </c>
+      <c r="P13">
+        <f>AVERAGE(P10:P12)</f>
+        <v>447.79299999999995</v>
+      </c>
+      <c r="Q13">
+        <v>380.58300000000003</v>
+      </c>
+      <c r="R13">
+        <f>AVERAGE(R10:R12)</f>
+        <v>172.15666666666667</v>
+      </c>
+      <c r="S13">
+        <v>150.21</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14">
@@ -789,6 +973,9 @@
       <c r="L14">
         <v>0.83185200000000004</v>
       </c>
+      <c r="N14">
+        <v>110</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15">
@@ -830,7 +1017,7 @@
         <v>0.89535299999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>10</v>
       </c>
@@ -849,8 +1036,17 @@
       <c r="L17">
         <v>0.92835299999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>12</v>
       </c>
@@ -869,8 +1065,14 @@
       <c r="L18">
         <v>0.93820300000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>900.88800000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>14</v>
       </c>
@@ -889,8 +1091,14 @@
       <c r="L19">
         <v>0.94600300000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>924.346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>512</v>
       </c>
@@ -906,8 +1114,14 @@
       <c r="I20">
         <v>4096</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>1024</v>
+      </c>
+      <c r="P20">
+        <v>894.21900000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>4</v>
       </c>
@@ -926,8 +1140,14 @@
       <c r="L21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>16</v>
+      </c>
+      <c r="P21">
+        <v>934.21400000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>8</v>
       </c>
@@ -946,8 +1166,11 @@
       <c r="L22">
         <v>0.70990200000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>12</v>
       </c>
@@ -967,7 +1190,7 @@
         <v>0.825152</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>14</v>
       </c>
@@ -987,7 +1210,7 @@
         <v>0.87860300000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>16</v>
       </c>
@@ -1007,7 +1230,7 @@
         <v>0.910103</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>18</v>
       </c>
@@ -1027,7 +1250,7 @@
         <v>0.943303</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>22</v>
       </c>
@@ -1045,12 +1268,158 @@
       </c>
       <c r="L27">
         <v>0.95610300000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="5">
+        <v>6944442180</v>
+      </c>
+      <c r="C31" s="5">
+        <v>38365800</v>
+      </c>
+      <c r="D31" s="5">
+        <v>28869685</v>
+      </c>
+      <c r="E31" s="5">
+        <v>9548030</v>
+      </c>
+      <c r="F31" s="5">
+        <v>6177345</v>
+      </c>
+      <c r="G31" s="5">
+        <v>683370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="5">
+        <v>7515895400</v>
+      </c>
+      <c r="C32" s="5">
+        <v>146631900</v>
+      </c>
+      <c r="D32" s="5">
+        <v>11437560</v>
+      </c>
+      <c r="E32" s="5">
+        <v>12548030</v>
+      </c>
+      <c r="F32" s="5">
+        <v>553010</v>
+      </c>
+      <c r="G32" s="5">
+        <v>608150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>4456100000</v>
+      </c>
+      <c r="C38">
+        <v>0.997</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>8550083600</v>
+      </c>
+      <c r="C39">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>7316077200</v>
+      </c>
+      <c r="C40">
+        <v>1.169</v>
+      </c>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>5864398700</v>
+      </c>
+      <c r="C41">
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42">
+        <v>4892010000</v>
+      </c>
+      <c r="C42">
+        <v>1.411</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1062,7 +1431,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1076,7 +1445,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
